--- a/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 7.xlsx
+++ b/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 7.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
